--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_1.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_1.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9108795334706562</v>
+        <v>0.9298714708888501</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7429130803360402</v>
+        <v>0.7669513227291341</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7102023298714382</v>
+        <v>0.7208185330854076</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9049762029963764</v>
+        <v>0.9328172655373806</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3709663211625795</v>
+        <v>0.2919118746347714</v>
       </c>
       <c r="G2" t="n">
-        <v>1.719141415569315</v>
+        <v>1.558397578000768</v>
       </c>
       <c r="H2" t="n">
-        <v>1.036589462615487</v>
+        <v>0.9986159192819484</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2701639326567221</v>
+        <v>0.1616831021580665</v>
       </c>
       <c r="J2" t="n">
-        <v>1.32048352381291</v>
+        <v>1.485571629176312</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6090700461872833</v>
+        <v>0.5402886956385182</v>
       </c>
       <c r="L2" t="n">
-        <v>6.703709857878003</v>
+        <v>0.9045058326997109</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6186622905680573</v>
+        <v>0.5487977025042747</v>
       </c>
       <c r="N2" t="n">
-        <v>131.9832879980657</v>
+        <v>36.46260664292078</v>
       </c>
       <c r="O2" t="n">
-        <v>273.3184605412821</v>
+        <v>73.4271902311466</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9090834146924625</v>
+        <v>0.9297231355231048</v>
       </c>
       <c r="C3" t="n">
-        <v>0.74147345134799</v>
+        <v>0.7666232952372551</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7078813189887417</v>
+        <v>0.7197008671147748</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9030300507450294</v>
+        <v>0.933103524788626</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3784427135274936</v>
+        <v>0.2925293245547708</v>
       </c>
       <c r="G3" t="n">
-        <v>1.728768221241289</v>
+        <v>1.560591099349391</v>
       </c>
       <c r="H3" t="n">
-        <v>1.044891583962948</v>
+        <v>1.002613745652905</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2756970744838435</v>
+        <v>0.1609941858147082</v>
       </c>
       <c r="J3" t="n">
-        <v>1.334013302803375</v>
+        <v>1.490221464950348</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6151769774036522</v>
+        <v>0.5408598012006169</v>
       </c>
       <c r="L3" t="n">
-        <v>6.818661459682403</v>
+        <v>0.9043038441165683</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6248653998463924</v>
+        <v>0.5493778024080804</v>
       </c>
       <c r="N3" t="n">
-        <v>131.9433811377476</v>
+        <v>36.45838072489461</v>
       </c>
       <c r="O3" t="n">
-        <v>273.278553680964</v>
+        <v>73.42296431312043</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9072267561741898</v>
+        <v>0.9295682687087128</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7400654804319464</v>
+        <v>0.7662868979362683</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7054403412128833</v>
+        <v>0.7185574933107838</v>
       </c>
       <c r="E4" t="n">
-        <v>0.900940194940331</v>
+        <v>0.9333796687106991</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3861711041767056</v>
+        <v>0.2931739618041309</v>
       </c>
       <c r="G4" t="n">
-        <v>1.738183329239983</v>
+        <v>1.562840589650057</v>
       </c>
       <c r="H4" t="n">
-        <v>1.05362281993117</v>
+        <v>1.006703527453159</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2816387825684118</v>
+        <v>0.1603296131931858</v>
       </c>
       <c r="J4" t="n">
-        <v>1.349992037892264</v>
+        <v>1.494928453617919</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6214266683822843</v>
+        <v>0.5414554107256948</v>
       </c>
       <c r="L4" t="n">
-        <v>6.937487604851853</v>
+        <v>0.9040929616459068</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6312135172105391</v>
+        <v>0.5499827921877871</v>
       </c>
       <c r="N4" t="n">
-        <v>131.902949465331</v>
+        <v>36.45397823971366</v>
       </c>
       <c r="O4" t="n">
-        <v>273.2381220085474</v>
+        <v>73.41856182793948</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9055811056482925</v>
+        <v>0.9294064443442487</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7386600151897215</v>
+        <v>0.7659415962671656</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7039378459548593</v>
+        <v>0.7173871686938252</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8989687809317136</v>
+        <v>0.9336457670789917</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3930211684244096</v>
+        <v>0.2938475600414109</v>
       </c>
       <c r="G5" t="n">
-        <v>1.747581681786313</v>
+        <v>1.565149623501314</v>
       </c>
       <c r="H5" t="n">
-        <v>1.058997158349442</v>
+        <v>1.010889710748699</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2872437465696113</v>
+        <v>0.1596892163708638</v>
       </c>
       <c r="J5" t="n">
-        <v>1.358489076482111</v>
+        <v>1.499692690079921</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6269140040104461</v>
+        <v>0.5420770794282035</v>
       </c>
       <c r="L5" t="n">
-        <v>7.042809238509278</v>
+        <v>0.9038726050645088</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6367872728895211</v>
+        <v>0.5506142515509197</v>
       </c>
       <c r="N5" t="n">
-        <v>131.8677836097763</v>
+        <v>36.44938829874653</v>
       </c>
       <c r="O5" t="n">
-        <v>273.2029561529927</v>
+        <v>73.41397188697235</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9007684476118537</v>
+        <v>0.9292372723580535</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7255332464503865</v>
+        <v>0.7655868915416845</v>
       </c>
       <c r="D6" t="n">
-        <v>0.712137996594354</v>
+        <v>0.7161889641386923</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8932804583845441</v>
+        <v>0.9339018934886323</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4130539859838127</v>
+        <v>0.2945517429503041</v>
       </c>
       <c r="G6" t="n">
-        <v>1.835360444789458</v>
+        <v>1.567521535633872</v>
       </c>
       <c r="H6" t="n">
-        <v>1.029665694984022</v>
+        <v>1.015175618966518</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3034163226823573</v>
+        <v>0.1590728182324653</v>
       </c>
       <c r="J6" t="n">
-        <v>1.295665567916017</v>
+        <v>1.504520172755768</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6426927617328615</v>
+        <v>0.5427262136200021</v>
       </c>
       <c r="L6" t="n">
-        <v>7.350819352841363</v>
+        <v>0.9036422432109665</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6528145302730936</v>
+        <v>0.5512736089573429</v>
       </c>
       <c r="N6" t="n">
-        <v>131.7683539557919</v>
+        <v>36.44460118739879</v>
       </c>
       <c r="O6" t="n">
-        <v>273.1035264990083</v>
+        <v>73.40918477562461</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8999877122902608</v>
+        <v>0.9290601972085316</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7234749864659291</v>
+        <v>0.7652220989735962</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7126536424750329</v>
+        <v>0.7149613125383988</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8916533749058586</v>
+        <v>0.934148277472281</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4163038176031037</v>
+        <v>0.2952888229875347</v>
       </c>
       <c r="G7" t="n">
-        <v>1.849124038782941</v>
+        <v>1.569960905216393</v>
       </c>
       <c r="H7" t="n">
-        <v>1.0278212595677</v>
+        <v>1.019566857557438</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3080423141205406</v>
+        <v>0.1584798663808173</v>
       </c>
       <c r="J7" t="n">
-        <v>1.281453723680049</v>
+        <v>1.50941458815232</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6452161014753923</v>
+        <v>0.5434048426242949</v>
       </c>
       <c r="L7" t="n">
-        <v>7.400786413423312</v>
+        <v>0.9034011196031069</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6553776100941548</v>
+        <v>0.5519629256900733</v>
       </c>
       <c r="N7" t="n">
-        <v>131.7526799090118</v>
+        <v>36.43960268127044</v>
       </c>
       <c r="O7" t="n">
-        <v>273.0878524522283</v>
+        <v>73.40418626949626</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.898402895642555</v>
+        <v>0.9288745823720842</v>
       </c>
       <c r="C8" t="n">
-        <v>0.721927017724854</v>
+        <v>0.7648465821824026</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7118704943142091</v>
+        <v>0.7137029151288479</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8907344147412195</v>
+        <v>0.9343847606945345</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4229006592087637</v>
+        <v>0.2960614496995755</v>
       </c>
       <c r="G8" t="n">
-        <v>1.85947531288225</v>
+        <v>1.572471987728201</v>
       </c>
       <c r="H8" t="n">
-        <v>1.030622535129427</v>
+        <v>1.024068072125328</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3106550269341986</v>
+        <v>0.157910741868573</v>
       </c>
       <c r="J8" t="n">
-        <v>1.280762754178024</v>
+        <v>1.514385962547069</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6503081263591619</v>
+        <v>0.5441152908158118</v>
       </c>
       <c r="L8" t="n">
-        <v>7.502214678876477</v>
+        <v>0.9031483674853913</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6605498292796864</v>
+        <v>0.552684562730419</v>
       </c>
       <c r="N8" t="n">
-        <v>131.7212359514465</v>
+        <v>36.43437649173528</v>
       </c>
       <c r="O8" t="n">
-        <v>273.0564084946629</v>
+        <v>73.3989600799611</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8963958541879945</v>
+        <v>0.9286797286625914</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7203238011072145</v>
+        <v>0.7644596301079514</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7097332784828527</v>
+        <v>0.7124122763756247</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8886659049235017</v>
+        <v>0.9346119742674025</v>
       </c>
       <c r="F9" t="n">
-        <v>0.431255022845022</v>
+        <v>0.2968725334673163</v>
       </c>
       <c r="G9" t="n">
-        <v>1.87019602978654</v>
+        <v>1.575059538031807</v>
       </c>
       <c r="H9" t="n">
-        <v>1.038267232235295</v>
+        <v>1.028684612110073</v>
       </c>
       <c r="I9" t="n">
-        <v>0.31653604584436</v>
+        <v>0.1573639258509225</v>
       </c>
       <c r="J9" t="n">
-        <v>1.293191381641552</v>
+        <v>1.519438396817142</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6567001011458898</v>
+        <v>0.5448601044922599</v>
       </c>
       <c r="L9" t="n">
-        <v>7.630665331968352</v>
+        <v>0.9028830347745925</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6670424712796748</v>
+        <v>0.5534411064777305</v>
       </c>
       <c r="N9" t="n">
-        <v>131.6821113270551</v>
+        <v>36.42890482509673</v>
       </c>
       <c r="O9" t="n">
-        <v>273.0172838702715</v>
+        <v>73.39348841332254</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8943875791927366</v>
+        <v>0.928474811983817</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7186899419986039</v>
+        <v>0.7640604333081147</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7074270150173794</v>
+        <v>0.711087785954404</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8865524681396497</v>
+        <v>0.9348300301539272</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4396145211273643</v>
+        <v>0.297725504613341</v>
       </c>
       <c r="G10" t="n">
-        <v>1.881121653169048</v>
+        <v>1.577728968870447</v>
       </c>
       <c r="H10" t="n">
-        <v>1.046516602926454</v>
+        <v>1.033422237548411</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3225447974513397</v>
+        <v>0.1568391488757198</v>
       </c>
       <c r="J10" t="n">
-        <v>1.307709325733925</v>
+        <v>1.524584624046289</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6630343287699094</v>
+        <v>0.5456422863134244</v>
       </c>
       <c r="L10" t="n">
-        <v>7.759194931664858</v>
+        <v>0.9026039992971124</v>
       </c>
       <c r="M10" t="n">
-        <v>0.673476456656868</v>
+        <v>0.5542356068806834</v>
       </c>
       <c r="N10" t="n">
-        <v>131.6437140488128</v>
+        <v>36.42316668486414</v>
       </c>
       <c r="O10" t="n">
-        <v>272.9788865920293</v>
+        <v>73.38775027308996</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8849424205387195</v>
+        <v>0.9282587819125379</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7113364484393148</v>
+        <v>0.7636481240413168</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6859204742008952</v>
+        <v>0.7097276270826482</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8813279226071619</v>
+        <v>0.9350391987892617</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4789302461805308</v>
+        <v>0.2986247355523592</v>
       </c>
       <c r="G11" t="n">
-        <v>1.930294498459739</v>
+        <v>1.580486082836034</v>
       </c>
       <c r="H11" t="n">
-        <v>1.123444252406132</v>
+        <v>1.038287446966139</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3373988004685754</v>
+        <v>0.156335760109163</v>
       </c>
       <c r="J11" t="n">
-        <v>1.348082455058699</v>
+        <v>1.529837407814299</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6920478640820523</v>
+        <v>0.5464656764631785</v>
       </c>
       <c r="L11" t="n">
-        <v>8.363685085521951</v>
+        <v>0.9023098306894133</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7029469261472823</v>
+        <v>0.555071964602208</v>
       </c>
       <c r="N11" t="n">
-        <v>131.4724006320313</v>
+        <v>36.41713511777493</v>
       </c>
       <c r="O11" t="n">
-        <v>272.8075731752477</v>
+        <v>73.38171870600075</v>
       </c>
     </row>
   </sheetData>
